--- a/Heavywater-BM-CLLtable-no names.xlsx
+++ b/Heavywater-BM-CLLtable-no names.xlsx
@@ -1,27 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/msivina/Previous back-up 2018/2015 Projects/Heavy Water Study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melanie.schulz/Documents/MATLAB/Burger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C58898E1-C157-E040-8F70-BEF18EEAB2AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{624D5BD6-8DDD-2E4F-9866-D5BD293161B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="640" windowWidth="28800" windowHeight="16340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="28800" windowHeight="16340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -503,279 +499,279 @@
     </xf>
   </cellXfs>
   <cellStyles count="273">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1315,7 +1311,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="7">
-        <f t="shared" ref="E7:E9" si="0">(D7*100)/D6</f>
+        <f>(D7*100)/D6</f>
         <v>52.631578947368418</v>
       </c>
       <c r="G7" s="2">
@@ -1328,7 +1324,7 @@
         <v>65</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" ref="J7:J9" si="1">(I7*100)/I6</f>
+        <f>(I7*100)/I6</f>
         <v>76.470588235294116</v>
       </c>
       <c r="L7" s="2">
@@ -1341,7 +1337,7 @@
         <v>38</v>
       </c>
       <c r="O7" s="7">
-        <f t="shared" ref="O7:O9" si="2">(N7*100)/N6</f>
+        <f>(N7*100)/N6</f>
         <v>86.36363636363636</v>
       </c>
       <c r="Q7" s="2">
@@ -1354,7 +1350,7 @@
         <v>76.3</v>
       </c>
       <c r="T7" s="7">
-        <f t="shared" ref="T7:T9" si="3">(S7*100)/S6</f>
+        <f>(S7*100)/S6</f>
         <v>82.043010752688176</v>
       </c>
     </row>
@@ -1369,7 +1365,7 @@
         <v>7.29</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" si="0"/>
+        <f>(D8*100)/D7</f>
         <v>24.3</v>
       </c>
       <c r="G8" s="2">
@@ -1382,7 +1378,7 @@
         <v>41.7</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="1"/>
+        <f>(I8*100)/I7</f>
         <v>64.15384615384616</v>
       </c>
       <c r="L8" s="2">
@@ -1395,7 +1391,7 @@
         <v>60</v>
       </c>
       <c r="O8" s="7">
-        <f t="shared" si="2"/>
+        <f>(N8*100)/N7</f>
         <v>157.89473684210526</v>
       </c>
       <c r="Q8" s="2">
@@ -1408,7 +1404,7 @@
         <v>49.3</v>
       </c>
       <c r="T8" s="7">
-        <f t="shared" si="3"/>
+        <f>(S8*100)/S7</f>
         <v>64.613368283093052</v>
       </c>
     </row>
@@ -1423,7 +1419,7 @@
         <v>1.2</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" si="0"/>
+        <f>(D9*100)/D8</f>
         <v>16.460905349794238</v>
       </c>
       <c r="G9" s="2">
@@ -1436,7 +1432,7 @@
         <v>14.1</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="1"/>
+        <f>(I9*100)/I8</f>
         <v>33.812949640287769</v>
       </c>
       <c r="L9" s="2">
@@ -1449,7 +1445,7 @@
         <v>33.5</v>
       </c>
       <c r="O9" s="7">
-        <f t="shared" si="2"/>
+        <f>(N9*100)/N8</f>
         <v>55.833333333333336</v>
       </c>
       <c r="Q9" s="2">
@@ -1462,7 +1458,7 @@
         <v>11</v>
       </c>
       <c r="T9" s="7">
-        <f t="shared" si="3"/>
+        <f>(S9*100)/S8</f>
         <v>22.312373225152133</v>
       </c>
     </row>
@@ -3033,11 +3029,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3084,7 +3075,7 @@
         <v>168</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" ref="E5:E7" si="0">D5/30</f>
+        <f>D5/30</f>
         <v>5.6</v>
       </c>
     </row>
@@ -3097,7 +3088,7 @@
         <v>339</v>
       </c>
       <c r="E6" s="8">
-        <f t="shared" si="0"/>
+        <f>D6/30</f>
         <v>11.3</v>
       </c>
     </row>
@@ -3110,17 +3101,12 @@
         <v>581</v>
       </c>
       <c r="E7" s="8">
-        <f t="shared" si="0"/>
+        <f>D7/30</f>
         <v>19.366666666666667</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>